--- a/cheatsheets/xlsx/BehandlungenProWoche.xlsx
+++ b/cheatsheets/xlsx/BehandlungenProWoche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczeg\Documents\ng2Goodies\cheatsheets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C3DC78-E88E-4941-A808-B79D9A8597E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25FADF-27D1-4C28-B381-7E9E427C2AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
   </bookViews>
   <sheets>
     <sheet name="KW30" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
-    Behandlungen letzte KW und diese KW zusammen:</t>
+    Behandlungen bis zur letzten KW und diese KW zusammen:</t>
       </text>
     </comment>
   </commentList>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
   <si>
     <t>Montag</t>
   </si>
@@ -207,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,9 +359,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -677,7 +682,7 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="F15" dT="2023-06-05T12:15:23.65" personId="{EB4555AA-DA2A-41A3-9090-9EE073F611C9}" id="{07EBA4F2-7F83-46D9-98A5-25A67938EE6D}">
-    <text>Behandlungen letzte KW und diese KW zusammen:</text>
+    <text>Behandlungen bis zur letzten KW und diese KW zusammen:</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1115,7 +1120,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1231,9 @@
       <c r="M3" s="10"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1248,7 +1255,9 @@
       <c r="M4" s="10"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1274,7 +1283,9 @@
       <c r="M5" s="10"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1486,11 +1497,11 @@
       </c>
       <c r="E16">
         <f>COUNTIF(B3:P12,B16)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <f ca="1">IFERROR(SUM(D16,E16), 0)</f>
-        <v>10</v>
+        <f t="shared" ref="F16:F20" ca="1" si="0">IFERROR(SUM(D16,E16), E16)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1510,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F20" ca="1" si="0">IFERROR(SUM(D17,E17), 0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1578,7 +1589,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="str">
+      <c r="B21" s="25" t="str">
         <v>Frau Neu</v>
       </c>
       <c r="C21" s="18" t="e">
@@ -1594,8 +1605,8 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <f ca="1">IFERROR(SUM(D21,E21), 0)</f>
-        <v>0</v>
+        <f ca="1">IFERROR(SUM(D21,E21), E21)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1615,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f ca="1">IFERROR(SUM(D22,E22), 0)</f>
+        <f ca="1">IFERROR(SUM(D22,E22), E22)</f>
         <v>3</v>
       </c>
     </row>

--- a/cheatsheets/xlsx/BehandlungenProWoche.xlsx
+++ b/cheatsheets/xlsx/BehandlungenProWoche.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczeg\Documents\ng2Goodies\cheatsheets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25FADF-27D1-4C28-B381-7E9E427C2AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE99D02-A5E5-4B35-A9FC-9161070A6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
   </bookViews>
   <sheets>
     <sheet name="KW30" sheetId="4" r:id="rId1"/>
     <sheet name="KW31" sheetId="5" r:id="rId2"/>
+    <sheet name="KW32" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,6 +55,24 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={21BD8B81-F474-404A-AF26-50554D9D31BF}</author>
+  </authors>
+  <commentList>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{21BD8B81-F474-404A-AF26-50554D9D31BF}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Behandlungen bis zur letzten KW und diese KW zusammen:</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -77,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
   <si>
     <t>Montag</t>
   </si>
@@ -133,20 +152,17 @@
     <t>Frau Neu</t>
   </si>
   <si>
-    <t>Behandlungen in KW30</t>
+    <t>Frau 2 in KW30</t>
   </si>
   <si>
-    <t>An dieser Stelle ist die Person in KW30</t>
-  </si>
-  <si>
-    <t>Frau 2 in KW30</t>
+    <t>Vorherige KW:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +222,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -299,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +370,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -359,8 +390,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -687,12 +719,21 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F15" dT="2023-06-05T12:15:23.65" personId="{EB4555AA-DA2A-41A3-9090-9EE073F611C9}" id="{21BD8B81-F474-404A-AF26-50554D9D31BF}">
+    <text>Behandlungen bis zur letzten KW und diese KW zusammen:</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C1560-F7B8-40E6-9917-CFDF93786F11}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,31 +748,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -932,7 +973,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
@@ -958,7 +999,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
@@ -1015,11 +1056,21 @@
       <c r="B15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="14" t="str">
+        <f>"Behandlungen in bis (inkl.) KW" &amp; VALUE(I15)</f>
+        <v>Behandlungen in bis (inkl.) KW29</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="27">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1027,76 +1078,94 @@
         <f t="array" ref="B16:B21">_xlfn.SORTBY(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;"")), COUNTIF(B3:P12, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;""))), -1)</f>
         <v>Frau Mayer</v>
       </c>
-      <c r="C16">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f>COUNTIF(B3:P12,B16)</f>
         <v>4</v>
       </c>
-      <c r="D16">
-        <f>C16</f>
+      <c r="F16">
+        <f>E16</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <v>Frau Rietzinger</v>
       </c>
-      <c r="C17">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <f>COUNTIF(B4:P13,B17)</f>
         <v>2</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D21" si="0">C17</f>
+      <c r="F17">
+        <f t="shared" ref="F17:F21" si="0">E17</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <v>Frau Schuster</v>
       </c>
-      <c r="C18">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f>COUNTIF(B5:P14,B18)</f>
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <v>Frau Klein</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <f>COUNTIF(B6:P15,B19)</f>
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="str">
         <v>Frau 2 in KW30</v>
       </c>
-      <c r="C20">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <f>COUNTIF(B7:P15,B20)</f>
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <v>Frau Groß</v>
       </c>
-      <c r="C21">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <f>COUNTIF(B8:P16,B21)</f>
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1117,10 +1186,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6EF901-2293-4E91-8B0C-D11B44C7F072}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,31 +1205,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1370,7 +1440,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
@@ -1449,14 +1519,14 @@
       <c r="E12" s="12"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="12"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="20" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="9" t="s">
@@ -1469,17 +1539,25 @@
       <c r="B15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>18</v>
+      <c r="C15" s="17" t="str">
+        <f>"An dieser Stelle ist die Person in KW" &amp; VALUE(I15)</f>
+        <v>An dieser Stelle ist die Person in KW30</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f>"Behandlungen in bis (inkl.) KW" &amp; VALUE(I15)</f>
+        <v>Behandlungen in bis (inkl.) KW30</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>11</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="27">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1488,11 +1566,11 @@
         <v>Frau Mayer</v>
       </c>
       <c r="C16" s="18">
-        <f>MATCH(B16,'KW30'!B$16:B33,0)</f>
+        <f ca="1">MATCH(B16,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
         <v>1</v>
       </c>
       <c r="D16" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">INDIRECT("KW30!D" &amp; (VALUE(C16) + 15))</f>
+        <f t="array" aca="1" ref="D16" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C16) + 15))</f>
         <v>4</v>
       </c>
       <c r="E16">
@@ -1509,11 +1587,11 @@
         <v>Frau Groß</v>
       </c>
       <c r="C17" s="18">
-        <f>MATCH(B17,'KW30'!B$16:B34,0)</f>
+        <f t="shared" ref="C17:C22" ca="1" si="1">MATCH(B17,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
         <v>6</v>
       </c>
       <c r="D17" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">INDIRECT("KW30!D" &amp; (VALUE(C17) + 15))</f>
+        <f t="array" aca="1" ref="D17" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C17) + 15))</f>
         <v>1</v>
       </c>
       <c r="E17">
@@ -1530,11 +1608,11 @@
         <v>Frau Klein</v>
       </c>
       <c r="C18" s="18">
-        <f>MATCH(B18,'KW30'!B$16:B35,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D18" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("KW30!D" &amp; (VALUE(C18) + 15))</f>
+        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C18) + 15))</f>
         <v>2</v>
       </c>
       <c r="E18">
@@ -1551,11 +1629,11 @@
         <v>Frau Rietzinger</v>
       </c>
       <c r="C19" s="18">
-        <f>MATCH(B19,'KW30'!B$16:B36,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D19" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">INDIRECT("KW30!D" &amp; (VALUE(C19) + 15))</f>
+        <f t="array" aca="1" ref="D19" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C19) + 15))</f>
         <v>2</v>
       </c>
       <c r="E19">
@@ -1572,11 +1650,11 @@
         <v>Frau Schuster</v>
       </c>
       <c r="C20" s="18">
-        <f>MATCH(B20,'KW30'!B$16:B37,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D20" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">INDIRECT("KW30!D" &amp; (VALUE(C20) + 15))</f>
+        <f t="array" aca="1" ref="D20" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C20) + 15))</f>
         <v>2</v>
       </c>
       <c r="E20">
@@ -1589,15 +1667,15 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="19" t="str">
         <v>Frau Neu</v>
       </c>
       <c r="C21" s="18" t="e">
-        <f>MATCH(B21,'KW30'!B$16:B38,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D21" t="e" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">INDIRECT("KW30!D" &amp; (VALUE(C21) + 15))</f>
+        <f t="array" aca="1" ref="D21" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C21) + 15))</f>
         <v>#N/A</v>
       </c>
       <c r="E21">
@@ -1614,11 +1692,11 @@
         <v>Frau 2 in KW30</v>
       </c>
       <c r="C22" s="18">
-        <f>MATCH(B22,'KW30'!B$16:B39,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">INDIRECT("KW30!D" &amp; (VALUE(C22) + 15))</f>
+        <f t="array" aca="1" ref="D22" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C22) + 15))</f>
         <v>2</v>
       </c>
       <c r="E22">
@@ -1629,6 +1707,387 @@
         <f ca="1">IFERROR(SUM(D22,E22), E22)</f>
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABF0347-A5CC-4858-8F4C-0D678D16C140}">
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f>"An dieser Stelle ist die Person in KW" &amp; VALUE(I15)</f>
+        <v>An dieser Stelle ist die Person in KW31</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f>"Behandlungen in bis (inkl.) KW" &amp; VALUE(I15)</f>
+        <v>Behandlungen in bis (inkl.) KW31</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">_xlfn.SORTBY(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;"")), COUNTIF(B3:P12, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;""))), -1)</f>
+        <v>Frau Neu</v>
+      </c>
+      <c r="C16" s="18">
+        <f ca="1">MATCH(B16,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
+        <v>6</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C16) + 15))</f>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF(B3:P12,B16)</f>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" ca="1" si="0">IFERROR(SUM(D16,E16), E16)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/cheatsheets/xlsx/BehandlungenProWoche.xlsx
+++ b/cheatsheets/xlsx/BehandlungenProWoche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczeg\Documents\ng2Goodies\cheatsheets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE99D02-A5E5-4B35-A9FC-9161070A6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF21C25B-0629-45D0-B1E6-6A3BC4C1882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
+    <workbookView xWindow="1185" yWindow="450" windowWidth="23265" windowHeight="15750" activeTab="2" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
   </bookViews>
   <sheets>
     <sheet name="KW30" sheetId="4" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
   <si>
     <t>Montag</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Vorherige KW:</t>
+  </si>
+  <si>
+    <t>Fr. Noch Neuer</t>
   </si>
 </sst>
 </file>
@@ -372,6 +375,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,9 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,31 +751,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1069,7 +1072,7 @@
       <c r="H15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="21">
         <v>29</v>
       </c>
     </row>
@@ -1205,31 +1208,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1556,7 +1559,7 @@
       <c r="H15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="21">
         <v>30</v>
       </c>
     </row>
@@ -1728,7 +1731,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,31 +1746,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1946,7 +1949,9 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="15"/>
@@ -2006,7 +2011,9 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="19" t="s">
@@ -2044,13 +2051,13 @@
       <c r="H15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="21">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="str" cm="1">
-        <f t="array" ref="B16">_xlfn.SORTBY(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;"")), COUNTIF(B3:P12, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;""))), -1)</f>
+        <f t="array" ref="B16:B18">_xlfn.SORTBY(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;"")), COUNTIF(B3:P12, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;""))), -1)</f>
         <v>Frau Neu</v>
       </c>
       <c r="C16" s="18">
@@ -2066,26 +2073,62 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F20" ca="1" si="0">IFERROR(SUM(D16,E16), E16)</f>
+        <f t="shared" ref="F16:F18" ca="1" si="0">IFERROR(SUM(D16,E16), E16)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <v>Frau Mayer</v>
+      </c>
+      <c r="C17" s="18">
+        <f ca="1">MATCH(B17,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C17) + 15))</f>
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF(B4:P13,B17)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>Fr. Noch Neuer</v>
+      </c>
+      <c r="C18" s="18" t="e">
+        <f ca="1">MATCH(B18,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="e" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C18) + 15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF(B5:P14,B18)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="18"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C20" s="18"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="18"/>
     </row>

--- a/cheatsheets/xlsx/BehandlungenProWoche.xlsx
+++ b/cheatsheets/xlsx/BehandlungenProWoche.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczeg\Documents\ng2Goodies\cheatsheets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF21C25B-0629-45D0-B1E6-6A3BC4C1882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C4E2C-74FF-412D-93E6-6952C2A1C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="450" windowWidth="23265" windowHeight="15750" activeTab="2" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
   </bookViews>
   <sheets>
     <sheet name="KW30" sheetId="4" r:id="rId1"/>
     <sheet name="KW31" sheetId="5" r:id="rId2"/>
     <sheet name="KW32" sheetId="8" r:id="rId3"/>
+    <sheet name="KW33" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,6 +74,24 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={17172765-BCC7-46D4-9025-11A65D69A3EC}</author>
+  </authors>
+  <commentList>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{17172765-BCC7-46D4-9025-11A65D69A3EC}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Behandlungen bis zur letzten KW und diese KW zusammen:</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -96,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
   <si>
     <t>Montag</t>
   </si>
@@ -165,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +250,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -730,6 +755,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F15" dT="2023-06-05T12:15:23.65" personId="{EB4555AA-DA2A-41A3-9090-9EE073F611C9}" id="{17172765-BCC7-46D4-9025-11A65D69A3EC}">
+    <text>Behandlungen bis zur letzten KW und diese KW zusammen:</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C1560-F7B8-40E6-9917-CFDF93786F11}">
   <sheetPr codeName="Tabelle1"/>
@@ -1730,8 +1763,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,4 +2177,414 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE7627-0E36-4D2A-907D-BA6A4B1DA20A}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f>"An dieser Stelle ist die Person in KW" &amp; VALUE(I15)</f>
+        <v>An dieser Stelle ist die Person in KW32</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f>"Behandlungen in bis (inkl.) KW" &amp; VALUE(I15)</f>
+        <v>Behandlungen in bis (inkl.) KW32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">_xlfn.SORTBY(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;"")), COUNTIF(B3:P12, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.TOCOL(B3:P12), _xlfn.TOCOL(B3:P12)&lt;&gt;""))), -1)</f>
+        <v>Frau Neu</v>
+      </c>
+      <c r="C16" s="18">
+        <f ca="1">MATCH(B16,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C16) + 15))</f>
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF(B3:P12,B16)</f>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F18" ca="1" si="0">IFERROR(SUM(D16,E16), E16)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="e">
+        <f ca="1">MATCH(B17,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" t="e" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C17) + 15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF(B4:P13,B17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="e">
+        <f ca="1">MATCH(B18,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="e" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C18) + 15))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF(B5:P14,B18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/cheatsheets/xlsx/BehandlungenProWoche.xlsx
+++ b/cheatsheets/xlsx/BehandlungenProWoche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczeg\Documents\ng2Goodies\cheatsheets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C4E2C-74FF-412D-93E6-6952C2A1C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCC1DA-E48B-45DF-B7FC-E166FA738F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{10B3320A-F546-4797-AB46-39B2D444BB49}"/>
   </bookViews>
   <sheets>
     <sheet name="KW30" sheetId="4" r:id="rId1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,12 +250,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1763,9 +1757,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2181,11 +2173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE7627-0E36-4D2A-907D-BA6A4B1DA20A}">
+  <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2525,53 +2516,24 @@
         <f t="shared" ref="F16:F18" ca="1" si="0">IFERROR(SUM(D16,E16), E16)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="e">
-        <f ca="1">MATCH(B17,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" t="e" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C17) + 15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17">
-        <f>COUNTIF(B4:P13,B17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="e">
-        <f ca="1">MATCH(B18,INDIRECT("'KW" &amp; VALUE($I$15) &amp; "'!B$16:B33"),0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">INDIRECT("KW"&amp;VALUE($I$15)&amp;"!F" &amp; (VALUE(C18) + 15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18">
-        <f>COUNTIF(B5:P14,B18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="18"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="18"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="18"/>
     </row>
